--- a/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qspiders Wakad\git\wcsa5.1Repository\wcsa5seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB63F4-EB43-4AA4-A5A5-612B629826BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7DC0F0-BBDE-4C91-8964-A66C65C6DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>USERNAME</t>
   </si>
@@ -68,6 +69,24 @@
   </si>
   <si>
     <t>12manager</t>
+  </si>
+  <si>
+    <t>RETYPEPASSWORD</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>TestEngg1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit </t>
+  </si>
+  <si>
+    <t>Shrama</t>
   </si>
 </sst>
 </file>
@@ -132,13 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -504,35 +522,91 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880702BD-F451-4901-8F2A-66A1FEFDEBFC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qspiders Wakad\git\wcsa5.1Repository\wcsa5seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7DC0F0-BBDE-4C91-8964-A66C65C6DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BE137-7C32-4EFE-9AA7-CF8371F399CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,22 +71,22 @@
     <t>12manager</t>
   </si>
   <si>
-    <t>RETYPEPASSWORD</t>
-  </si>
-  <si>
     <t>FIRST NAME</t>
   </si>
   <si>
     <t>LAST NAME</t>
   </si>
   <si>
-    <t>TestEngg1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rohit </t>
   </si>
   <si>
     <t>Shrama</t>
+  </si>
+  <si>
+    <t>manager123</t>
+  </si>
+  <si>
+    <t>manager_01</t>
   </si>
 </sst>
 </file>
@@ -560,56 +560,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880702BD-F451-4901-8F2A-66A1FEFDEBFC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>